--- a/Assets/EditorAssets/Table/角色表.xlsx
+++ b/Assets/EditorAssets/Table/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Win\Game_2D\Assets\EditorAssets\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3B7EB-05D5-4C75-916B-D574CB97D860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB918C8-7420-4E4B-AD90-AA1E6B2F3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="5250" windowWidth="24510" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9615" yWindow="5145" windowWidth="24510" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色初始" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>角色名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,26 @@
   </si>
   <si>
     <t>ushort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortraitPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -90,6 +110,12 @@
       <color theme="8" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -124,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -136,6 +162,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,33 +512,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -647,6 +690,13 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/EditorAssets/Table/角色表.xlsx
+++ b/Assets/EditorAssets/Table/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Win\Game_2D\Assets\EditorAssets\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB918C8-7420-4E4B-AD90-AA1E6B2F3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF7E758-D274-43E7-B22E-2E3F1733DD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="5145" windowWidth="24510" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24510" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色初始" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预制体路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>头像路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PortraitPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +63,14 @@
   </si>
   <si>
     <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,53 +497,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>

--- a/Assets/EditorAssets/Table/角色表.xlsx
+++ b/Assets/EditorAssets/Table/角色表.xlsx
@@ -1,92 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Win\Game_2D\Assets\EditorAssets\Table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF7E758-D274-43E7-B22E-2E3F1733DD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24510" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25275" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="角色初始" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>角色名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体名</t>
   </si>
   <si>
     <t>头像路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>PortraitPath</t>
+  </si>
+  <si>
+    <t>Star</t>
   </si>
   <si>
     <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ushort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortraitPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制体名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrefabName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Cat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -94,31 +76,180 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="8" tint="0.39997558519241921"/>
+      <color theme="8" tint="0.399975585192419"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,7 +258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
+        <fgColor theme="1" tint="0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,8 +268,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,39 +463,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -227,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -260,26 +863,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -312,23 +898,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,236 +1039,233 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="36.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="36.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="18.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/EditorAssets/Table/角色表.xlsx
+++ b/Assets/EditorAssets/Table/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25275" windowHeight="12420"/>
+    <workbookView windowWidth="25275" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="角色初始" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>星级</t>
   </si>
   <si>
+    <t>速度</t>
+  </si>
+  <si>
     <t>RoleName</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>Star</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
   <si>
     <t>uint</t>
@@ -709,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -724,6 +730,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1045,13 +1054,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="18.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="36.7142857142857" customWidth="1"/>
@@ -1059,7 +1068,7 @@
     <col min="5" max="5" width="18.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,193 +1084,65 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:5">
+    <row r="3" ht="18.75" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/EditorAssets/Table/角色表.xlsx
+++ b/Assets/EditorAssets/Table/角色表.xlsx
@@ -715,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -730,9 +730,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1057,7 +1054,9 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1140,7 +1139,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
     </row>
